--- a/10. TTCA/TTCA_test.xlsx
+++ b/10. TTCA/TTCA_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenjiaodu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenjiaodu/Downloads/UniDL4BioPep-main/10. TTCA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5E5DCE-CEDF-6048-AE73-A0FDC479AB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACC98DF-AD93-A946-9DD4-C3874317A160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{A04CA6D8-748D-6043-B860-3ACF6387DA12}"/>
+    <workbookView xWindow="15860" yWindow="2940" windowWidth="27640" windowHeight="16940" xr2:uid="{A04CA6D8-748D-6043-B860-3ACF6387DA12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -681,9 +681,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -721,7 +721,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -827,7 +827,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -969,7 +969,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -980,7 +980,7 @@
   <dimension ref="A1:B198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B7" sqref="A1:B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -998,7 +998,7 @@
         <v>83</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1006,7 +1006,7 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1014,7 +1014,7 @@
         <v>29</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1022,7 +1022,7 @@
         <v>101</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1030,7 +1030,7 @@
         <v>105</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1038,7 +1038,7 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1046,7 +1046,7 @@
         <v>69</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1054,7 +1054,7 @@
         <v>76</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1062,7 +1062,7 @@
         <v>26</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1078,7 +1078,7 @@
         <v>36</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1086,7 +1086,7 @@
         <v>188</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1094,7 +1094,7 @@
         <v>182</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1102,7 +1102,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1110,7 +1110,7 @@
         <v>147</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1118,7 +1118,7 @@
         <v>107</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1126,7 +1126,7 @@
         <v>186</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1134,7 +1134,7 @@
         <v>117</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1142,7 +1142,7 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1150,7 +1150,7 @@
         <v>49</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1158,7 +1158,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1166,7 +1166,7 @@
         <v>129</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1174,7 +1174,7 @@
         <v>135</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1182,7 +1182,7 @@
         <v>180</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1190,7 +1190,7 @@
         <v>51</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1198,7 +1198,7 @@
         <v>100</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1206,7 +1206,7 @@
         <v>165</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1214,7 +1214,7 @@
         <v>53</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1222,7 +1222,7 @@
         <v>152</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1230,7 +1230,7 @@
         <v>131</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1238,7 +1238,7 @@
         <v>89</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1246,7 +1246,7 @@
         <v>85</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1254,7 +1254,7 @@
         <v>82</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1262,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1270,7 +1270,7 @@
         <v>11</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1278,7 +1278,7 @@
         <v>96</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1286,7 +1286,7 @@
         <v>177</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1294,7 +1294,7 @@
         <v>121</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1302,7 +1302,7 @@
         <v>6</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1310,7 +1310,7 @@
         <v>22</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1318,7 +1318,7 @@
         <v>62</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1326,7 +1326,7 @@
         <v>84</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1334,7 +1334,7 @@
         <v>153</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1342,7 +1342,7 @@
         <v>134</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1350,7 +1350,7 @@
         <v>8</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1358,7 +1358,7 @@
         <v>110</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1366,7 +1366,7 @@
         <v>132</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1374,7 +1374,7 @@
         <v>5</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1382,7 +1382,7 @@
         <v>187</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1390,7 +1390,7 @@
         <v>183</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1398,7 +1398,7 @@
         <v>86</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1406,7 +1406,7 @@
         <v>67</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1414,7 +1414,7 @@
         <v>111</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1422,7 +1422,7 @@
         <v>112</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1430,7 +1430,7 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1438,7 +1438,7 @@
         <v>24</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1446,7 +1446,7 @@
         <v>92</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1454,7 +1454,7 @@
         <v>174</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1462,7 +1462,7 @@
         <v>172</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1470,7 +1470,7 @@
         <v>58</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1478,7 +1478,7 @@
         <v>91</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1486,7 +1486,7 @@
         <v>70</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1494,7 +1494,7 @@
         <v>159</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1502,7 +1502,7 @@
         <v>124</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1510,7 +1510,7 @@
         <v>59</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1518,7 +1518,7 @@
         <v>34</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1526,7 +1526,7 @@
         <v>154</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1534,7 +1534,7 @@
         <v>55</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1542,7 +1542,7 @@
         <v>162</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1550,7 +1550,7 @@
         <v>130</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1558,7 +1558,7 @@
         <v>90</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1566,7 +1566,7 @@
         <v>191</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1574,7 +1574,7 @@
         <v>120</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1582,7 +1582,7 @@
         <v>123</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1590,7 +1590,7 @@
         <v>42</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1598,7 +1598,7 @@
         <v>68</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1606,7 +1606,7 @@
         <v>65</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1614,7 +1614,7 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1622,7 +1622,7 @@
         <v>161</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1630,7 +1630,7 @@
         <v>141</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1638,7 +1638,7 @@
         <v>93</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1646,7 +1646,7 @@
         <v>119</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1654,7 +1654,7 @@
         <v>32</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1662,7 +1662,7 @@
         <v>47</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1670,7 +1670,7 @@
         <v>125</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1678,7 +1678,7 @@
         <v>73</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1686,7 +1686,7 @@
         <v>57</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1694,7 +1694,7 @@
         <v>17</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1702,7 +1702,7 @@
         <v>194</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1710,7 +1710,7 @@
         <v>140</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1718,7 +1718,7 @@
         <v>56</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1726,7 +1726,7 @@
         <v>33</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1734,7 +1734,7 @@
         <v>158</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1742,7 +1742,7 @@
         <v>2</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1750,7 +1750,7 @@
         <v>114</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1758,7 +1758,7 @@
         <v>133</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1766,7 +1766,7 @@
         <v>176</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1774,7 +1774,7 @@
         <v>163</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1782,7 +1782,7 @@
         <v>10</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1790,7 +1790,7 @@
         <v>155</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1798,7 +1798,7 @@
         <v>95</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1806,7 +1806,7 @@
         <v>50</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1814,7 +1814,7 @@
         <v>137</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1822,7 +1822,7 @@
         <v>122</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1830,7 +1830,7 @@
         <v>52</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1838,7 +1838,7 @@
         <v>116</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1846,7 +1846,7 @@
         <v>179</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1854,7 +1854,7 @@
         <v>148</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1862,7 +1862,7 @@
         <v>184</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1870,7 +1870,7 @@
         <v>7</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -1878,7 +1878,7 @@
         <v>41</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -1886,7 +1886,7 @@
         <v>63</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -1894,7 +1894,7 @@
         <v>166</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -1902,7 +1902,7 @@
         <v>64</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -1910,7 +1910,7 @@
         <v>79</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -1918,7 +1918,7 @@
         <v>20</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -1926,7 +1926,7 @@
         <v>87</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -1934,7 +1934,7 @@
         <v>106</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -1942,7 +1942,7 @@
         <v>90</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -1950,7 +1950,7 @@
         <v>173</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -1958,7 +1958,7 @@
         <v>164</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -1966,7 +1966,7 @@
         <v>107</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -1974,7 +1974,7 @@
         <v>48</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -1982,7 +1982,7 @@
         <v>144</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -1990,7 +1990,7 @@
         <v>115</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -1998,7 +1998,7 @@
         <v>170</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -2006,7 +2006,7 @@
         <v>143</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -2014,7 +2014,7 @@
         <v>175</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -2022,7 +2022,7 @@
         <v>23</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -2030,7 +2030,7 @@
         <v>72</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -2038,7 +2038,7 @@
         <v>44</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -2046,7 +2046,7 @@
         <v>46</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -2054,7 +2054,7 @@
         <v>192</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -2062,7 +2062,7 @@
         <v>14</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -2070,7 +2070,7 @@
         <v>145</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -2078,7 +2078,7 @@
         <v>13</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -2086,7 +2086,7 @@
         <v>126</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -2094,7 +2094,7 @@
         <v>178</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -2102,7 +2102,7 @@
         <v>181</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -2110,7 +2110,7 @@
         <v>142</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -2118,7 +2118,7 @@
         <v>128</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -2126,7 +2126,7 @@
         <v>104</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -2134,7 +2134,7 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -2142,7 +2142,7 @@
         <v>168</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -2150,7 +2150,7 @@
         <v>99</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -2158,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -2166,7 +2166,7 @@
         <v>45</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -2174,7 +2174,7 @@
         <v>103</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -2182,7 +2182,7 @@
         <v>75</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -2190,7 +2190,7 @@
         <v>102</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -2198,7 +2198,7 @@
         <v>61</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -2206,7 +2206,7 @@
         <v>39</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -2214,7 +2214,7 @@
         <v>77</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -2222,7 +2222,7 @@
         <v>81</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -2230,7 +2230,7 @@
         <v>88</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -2238,7 +2238,7 @@
         <v>43</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -2246,7 +2246,7 @@
         <v>54</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -2254,7 +2254,7 @@
         <v>160</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -2262,7 +2262,7 @@
         <v>151</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -2270,7 +2270,7 @@
         <v>66</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -2278,7 +2278,7 @@
         <v>150</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -2286,7 +2286,7 @@
         <v>108</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -2294,7 +2294,7 @@
         <v>149</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -2302,7 +2302,7 @@
         <v>157</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -2310,7 +2310,7 @@
         <v>27</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -2318,7 +2318,7 @@
         <v>74</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -2326,7 +2326,7 @@
         <v>21</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -2334,7 +2334,7 @@
         <v>18</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -2342,7 +2342,7 @@
         <v>167</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -2350,7 +2350,7 @@
         <v>15</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -2358,7 +2358,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -2366,7 +2366,7 @@
         <v>19</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -2374,7 +2374,7 @@
         <v>190</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -2382,7 +2382,7 @@
         <v>113</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -2390,7 +2390,7 @@
         <v>118</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -2398,7 +2398,7 @@
         <v>40</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -2406,7 +2406,7 @@
         <v>189</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -2414,7 +2414,7 @@
         <v>156</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -2422,7 +2422,7 @@
         <v>71</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -2430,7 +2430,7 @@
         <v>139</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -2438,7 +2438,7 @@
         <v>185</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -2446,7 +2446,7 @@
         <v>12</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -2454,7 +2454,7 @@
         <v>127</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -2462,7 +2462,7 @@
         <v>169</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -2470,7 +2470,7 @@
         <v>98</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -2478,7 +2478,7 @@
         <v>35</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -2486,7 +2486,7 @@
         <v>136</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -2494,7 +2494,7 @@
         <v>31</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -2502,7 +2502,7 @@
         <v>97</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -2510,7 +2510,7 @@
         <v>78</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -2518,7 +2518,7 @@
         <v>37</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -2526,7 +2526,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -2534,7 +2534,7 @@
         <v>94</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -2542,7 +2542,7 @@
         <v>28</v>
       </c>
       <c r="B195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -2550,7 +2550,7 @@
         <v>38</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -2558,7 +2558,7 @@
         <v>109</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -2566,7 +2566,7 @@
         <v>138</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
